--- a/src/WMOSS-EXCELDB-SAMPLE.xlsx
+++ b/src/WMOSS-EXCELDB-SAMPLE.xlsx
@@ -16,7 +16,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>RELEASE_DATE</t>
+  </si>
+  <si>
+    <t>GENRE</t>
+  </si>
+  <si>
+    <t>CLASSIFICATION</t>
+  </si>
+  <si>
+    <t>RATING</t>
+  </si>
+  <si>
+    <t>POSTER_FILENAME</t>
+  </si>
+  <si>
+    <t>RUNTIME_MINUTES</t>
+  </si>
+  <si>
+    <t>DESCRIPTION</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>CAPACITY</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
   <si>
     <t>FULLNAME</t>
   </si>
@@ -28,69 +61,6 @@
   </si>
   <si>
     <t>ROLE</t>
-  </si>
-  <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>CAPACITY</t>
-  </si>
-  <si>
-    <t>ADDRESS</t>
-  </si>
-  <si>
-    <t>CA Theater #1</t>
-  </si>
-  <si>
-    <t>123 Lygon Street, Melbourne VIC 3000</t>
-  </si>
-  <si>
-    <t>CA Theater #2</t>
-  </si>
-  <si>
-    <t>CA Theater #3</t>
-  </si>
-  <si>
-    <t>CA Theater #4</t>
-  </si>
-  <si>
-    <t>CA Theater #5</t>
-  </si>
-  <si>
-    <t>TITLE</t>
-  </si>
-  <si>
-    <t>RELEASE_YEAR</t>
-  </si>
-  <si>
-    <t>GENRE</t>
-  </si>
-  <si>
-    <t>CLASSIFICATION</t>
-  </si>
-  <si>
-    <t>RATING</t>
-  </si>
-  <si>
-    <t>POSTER_FILENAME</t>
-  </si>
-  <si>
-    <t>RUNTIME_MINUTES</t>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>Avengers: Infinity War</t>
-  </si>
-  <si>
-    <t>Action, Adventure, Fantasy</t>
-  </si>
-  <si>
-    <t>PG-13</t>
-  </si>
-  <si>
-    <t>As the Avengers and their allies have continued to protect the world from threats too large for any one hero to handle, a new danger has emerged from the cosmic shadows: Thanos. A despot of intergalactic infamy, his goal is to collect all six Infinity Stones, artifacts of unimaginable power, and use them to inflict his twisted will on all of reality. Everything the Avengers have fought for has led up to this moment - the fate of Earth and existence itself has never been more uncertain.</t>
   </si>
   <si>
     <t>MOVIE_ID</t>
@@ -136,40 +106,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font/>
-    <font>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <color rgb="FF333333"/>
-      <name val="Verdana"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBFBFB"/>
-        <bgColor rgb="FFFBFBFB"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -178,18 +128,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -236,19 +180,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="list" allowBlank="1" sqref="D2:D980">
+      <formula1>"SUPERADMIN,ADMIN"</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid email" sqref="B2:B980">
+      <formula1>IFERROR(ISEMAIL(B2), true)</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -272,53 +224,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1">
-        <v>2018.0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1">
-        <v>156.0</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="3"/>
-    </row>
-  </sheetData>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" prompt="Enter a number between 1 and 9999" sqref="G2:G952">
+      <formula1>1.0</formula1>
+      <formula2>9999.0</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" sqref="D2:D952">
+      <formula1>"UNRATED,G,PG-13,M,MA-15,R-18,X-18"</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number between 0.0 and 5.0" sqref="E2:E952">
+      <formula1>0.0</formula1>
+      <formula2>5.0</formula2>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -336,71 +280,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="1">
-        <v>50.0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 1" sqref="B31:B830">
+      <formula1>1.0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThan" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than 1" sqref="B2:B30">
+      <formula1>1.0</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -420,26 +317,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1"/>
     </row>
   </sheetData>
+  <dataValidations>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than or equal to 0.00" sqref="D2:D940">
+      <formula1>0.0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than or equal to 2" sqref="A2:B940 E2:E940">
+      <formula1>2.0</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -458,28 +363,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than or equal to 0.00" sqref="D2:D970">
+      <formula1>0.0</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" prompt="Enter a valid email" sqref="C2:C970">
+      <formula1>IFERROR(ISEMAIL(C2), true)</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -498,17 +411,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="D1" s="1"/>
     </row>
   </sheetData>
+  <dataValidations>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than or equal to 2" sqref="A2:B946">
+      <formula1>2.0</formula1>
+    </dataValidation>
+  </dataValidations>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/WMOSS-EXCELDB-SAMPLE.xlsx
+++ b/src/WMOSS-EXCELDB-SAMPLE.xlsx
@@ -16,11 +16,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+  <si>
+    <t>FULLNAME</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>PASSWORD_ENCRYPTED</t>
+  </si>
+  <si>
+    <t>ROLE</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
   <si>
     <t>TITLE</t>
   </si>
   <si>
+    <t>CAPACITY</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
     <t>RELEASE_DATE</t>
   </si>
   <si>
@@ -42,25 +63,16 @@
     <t>DESCRIPTION</t>
   </si>
   <si>
-    <t>NAME</t>
-  </si>
-  <si>
-    <t>CAPACITY</t>
-  </si>
-  <si>
-    <t>ADDRESS</t>
-  </si>
-  <si>
-    <t>FULLNAME</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>PASSWORD_ENCRYPTED</t>
-  </si>
-  <si>
-    <t>ROLE</t>
+    <t>Mission: Impossible - Fallout</t>
+  </si>
+  <si>
+    <t>Action, Adventure, Thriller</t>
+  </si>
+  <si>
+    <t>PG-13</t>
+  </si>
+  <si>
+    <t>Ethan Hunt and his IMF team, along with some familiar allies, race against time after a mission gone wrong.</t>
   </si>
   <si>
     <t>MOVIE_ID</t>
@@ -106,6 +118,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy hh:mm:ss"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10.0"/>
@@ -128,11 +143,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -180,16 +198,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -224,33 +242,56 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I1" s="1"/>
     </row>
-  </sheetData>
-  <dataValidations>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2">
+        <v>43308.0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1">
+        <v>140.0</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid date" sqref="B2:B952">
+      <formula1>OR(NOT(ISERROR(DATEVALUE(B2))), AND(ISNUMBER(B2), LEFT(CELL("format", B2))="D"))</formula1>
+    </dataValidation>
     <dataValidation type="decimal" allowBlank="1" showDropDown="1" showInputMessage="1" prompt="Enter a number between 1 and 9999" sqref="G2:G952">
       <formula1>1.0</formula1>
       <formula2>9999.0</formula2>
@@ -280,13 +321,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -317,22 +358,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -343,6 +384,9 @@
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than or equal to 2" sqref="A2:B940 E2:E940">
       <formula1>2.0</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid date and time" sqref="C2:C940 F2:F940">
+      <formula1>OR(NOT(ISERROR(DATEVALUE(C2))), AND(ISNUMBER(C2), LEFT(CELL("format", C2))="D"))</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
@@ -363,31 +407,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
   <dataValidations>
     <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a number greater than or equal to 0.00" sqref="D2:D970">
       <formula1>0.0</formula1>
+    </dataValidation>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" prompt="Enter a valid date and time" sqref="G2:G970">
+      <formula1>OR(NOT(ISERROR(DATEVALUE(G2))), AND(ISNUMBER(G2), LEFT(CELL("format", G2))="D"))</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showDropDown="1" showInputMessage="1" prompt="Enter a valid email" sqref="C2:C970">
       <formula1>IFERROR(ISEMAIL(C2), true)</formula1>
@@ -411,13 +458,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D1" s="1"/>
     </row>
